--- a/example_data/EPA/label_corrected/083100-00050-20170308_2018-12-08_131802.xlsx
+++ b/example_data/EPA/label_corrected/083100-00050-20170308_2018-12-08_131802.xlsx
@@ -1056,7 +1056,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Env warning - species || Application instructions</t>
+          <t>application instructions || env warning - species</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Env warning - water</t>
+          <t>env warning - water</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Env warning - water</t>
+          <t>env warning - water</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>32_Physical_and_Chemical_Hazards</t>
+          <t>32_physical_and_chemical_hazards</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>172_Sensitive_Areas</t>
+          <t>172_sensitive_areas</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Chemigation</t>
+          <t>chemigation</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
@@ -4879,7 +4879,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G148" t="inlineStr"/>
@@ -4942,7 +4942,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G150" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G152" t="inlineStr"/>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G153" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G155" t="inlineStr"/>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G157" t="inlineStr"/>
@@ -5212,7 +5212,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G158" t="inlineStr"/>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G159" t="inlineStr"/>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G160" t="inlineStr"/>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G161" t="inlineStr"/>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G164" t="inlineStr"/>
@@ -5453,7 +5453,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G166" t="inlineStr"/>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G170" t="inlineStr"/>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G171" t="inlineStr"/>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G172" t="inlineStr"/>
@@ -5674,7 +5674,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G173" t="inlineStr"/>
@@ -5838,7 +5838,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G178" t="inlineStr"/>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G179" t="inlineStr"/>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G181" t="inlineStr"/>
